--- a/ApachePOI/Dados (Grupo 9).xlsx
+++ b/ApachePOI/Dados (Grupo 9).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Hugo\Desktop\SPTECH\2º SEMESTRE\PROJETO ENERGIA\java-grupo9\ApachePOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB29344-A628-450A-9A80-CD31D41A092E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D88AD93-7E73-4959-93B2-4765A78747D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
